--- a/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Enfermedad renal terminal (INC).xlsx
+++ b/resources/experiment 1/predictions/single/RandomForestRegressor/incidence/Enfermedad renal terminal (INC).xlsx
@@ -452,783 +452,783 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63.77132377398708</v>
+        <v>63.63974129353218</v>
       </c>
       <c r="B2" t="n">
-        <v>49.03646565656569</v>
+        <v>49.32</v>
       </c>
       <c r="C2" t="n">
-        <v>76.34527037037039</v>
+        <v>76.34000000000003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.672794361525696</v>
+        <v>6.634686567164172</v>
       </c>
       <c r="B3" t="n">
-        <v>3.237357142857143</v>
+        <v>3.212000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.94035555555554</v>
+        <v>10.93600000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>12.59272968490878</v>
+        <v>12.52660696517412</v>
       </c>
       <c r="B4" t="n">
-        <v>6.917199999999998</v>
+        <v>6.880000000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>19.36711111111113</v>
+        <v>19.12799999999998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>9.046917412935322</v>
+        <v>9.057074626865669</v>
       </c>
       <c r="B5" t="n">
-        <v>4.920575901875901</v>
+        <v>4.96</v>
       </c>
       <c r="C5" t="n">
-        <v>14.51415873015872</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33.11374527363166</v>
+        <v>33.24298507462672</v>
       </c>
       <c r="B6" t="n">
-        <v>21.31698333333335</v>
+        <v>21.6</v>
       </c>
       <c r="C6" t="n">
-        <v>46.97850476190468</v>
+        <v>46.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58.36073963515748</v>
+        <v>58.27663681592036</v>
       </c>
       <c r="B7" t="n">
-        <v>43.76599999999999</v>
+        <v>43.84399999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>73.04983809523809</v>
+        <v>72.63600000000005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>78.35794247731243</v>
+        <v>78.49391044776112</v>
       </c>
       <c r="B8" t="n">
-        <v>63.58005476190479</v>
+        <v>63.93600000000002</v>
       </c>
       <c r="C8" t="n">
-        <v>88.93135394235397</v>
+        <v>89.10000000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29.89475124378102</v>
+        <v>29.85303482587054</v>
       </c>
       <c r="B9" t="n">
-        <v>18.89593333333334</v>
+        <v>18.99199999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>41.34133333333339</v>
+        <v>41.29199999999998</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>79.29499944643517</v>
+        <v>79.08173134328348</v>
       </c>
       <c r="B10" t="n">
-        <v>63.55897366419465</v>
+        <v>64.42000000000002</v>
       </c>
       <c r="C10" t="n">
-        <v>89.63557975525596</v>
+        <v>89.35999999999996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>72.23684593698169</v>
+        <v>72.18212935323373</v>
       </c>
       <c r="B11" t="n">
-        <v>58.06420952380954</v>
+        <v>57.74800000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>83.01328164983164</v>
+        <v>82.69199999999995</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>55.10520729684897</v>
+        <v>54.82401990049746</v>
       </c>
       <c r="B12" t="n">
-        <v>40.43802380952382</v>
+        <v>41.49199999999998</v>
       </c>
       <c r="C12" t="n">
-        <v>68.37659999999998</v>
+        <v>68.46799999999999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>79.30388031395027</v>
+        <v>79.53150248756212</v>
       </c>
       <c r="B13" t="n">
-        <v>64.98196790134958</v>
+        <v>64.85599999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>89.17344411334508</v>
+        <v>89.28400000000005</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76.9648203139168</v>
+        <v>76.92218905472618</v>
       </c>
       <c r="B14" t="n">
-        <v>63.32613576213556</v>
+        <v>63.312</v>
       </c>
       <c r="C14" t="n">
-        <v>87.09736864616859</v>
+        <v>87.03200000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11.72887578772802</v>
+        <v>11.93906467661692</v>
       </c>
       <c r="B15" t="n">
-        <v>6.746135714285706</v>
+        <v>6.628000000000002</v>
       </c>
       <c r="C15" t="n">
-        <v>19.19482063492064</v>
+        <v>19.22000000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33.17849999999982</v>
+        <v>33.38407960198992</v>
       </c>
       <c r="B16" t="n">
-        <v>21.55065000000002</v>
+        <v>21.888</v>
       </c>
       <c r="C16" t="n">
-        <v>46.73990476190468</v>
+        <v>46.676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>54.73562520729671</v>
+        <v>54.83820895522376</v>
       </c>
       <c r="B17" t="n">
-        <v>40.66204999999998</v>
+        <v>40.63599999999997</v>
       </c>
       <c r="C17" t="n">
-        <v>67.91762222222209</v>
+        <v>68.54800000000002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>12.57748590381425</v>
+        <v>12.52660696517412</v>
       </c>
       <c r="B18" t="n">
-        <v>6.917199999999998</v>
+        <v>6.880000000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>19.35911111111113</v>
+        <v>19.12799999999998</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>74.11464558890522</v>
+        <v>73.90179104477606</v>
       </c>
       <c r="B19" t="n">
-        <v>60.56251424686425</v>
+        <v>60.57999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>84.30657636938219</v>
+        <v>84.16800000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>38.08064795072244</v>
+        <v>38.013791044776</v>
       </c>
       <c r="B20" t="n">
-        <v>25.32099783549784</v>
+        <v>25.636</v>
       </c>
       <c r="C20" t="n">
-        <v>51.34912380952377</v>
+        <v>51.36000000000003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.24810082918725</v>
+        <v>20.18354228855705</v>
       </c>
       <c r="B21" t="n">
-        <v>12.03092640692641</v>
+        <v>11.464</v>
       </c>
       <c r="C21" t="n">
-        <v>29.57686825396825</v>
+        <v>28.912</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80.00736753244783</v>
+        <v>80.11315422885555</v>
       </c>
       <c r="B22" t="n">
-        <v>64.83803538967778</v>
+        <v>64.66</v>
       </c>
       <c r="C22" t="n">
-        <v>90.00342190406579</v>
+        <v>90.00400000000002</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>13.07322835820894</v>
+        <v>12.97596019900497</v>
       </c>
       <c r="B23" t="n">
-        <v>7.154033333333336</v>
+        <v>7.352000000000004</v>
       </c>
       <c r="C23" t="n">
-        <v>19.94651111111111</v>
+        <v>20.13199999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>33.15999253731326</v>
+        <v>33.31737313432823</v>
       </c>
       <c r="B24" t="n">
-        <v>21.62323333333335</v>
+        <v>21.684</v>
       </c>
       <c r="C24" t="n">
-        <v>46.46511111111101</v>
+        <v>46.48800000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26.59376903577341</v>
+        <v>26.56366169154216</v>
       </c>
       <c r="B25" t="n">
-        <v>15.86924444444444</v>
+        <v>15.73599999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>38.24324444444446</v>
+        <v>38.212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>20.56415555555548</v>
+        <v>20.4151442786069</v>
       </c>
       <c r="B26" t="n">
-        <v>12.11244545454546</v>
+        <v>12.06</v>
       </c>
       <c r="C26" t="n">
-        <v>30.58357301587301</v>
+        <v>31.17999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>79.98303396037178</v>
+        <v>79.97701492537303</v>
       </c>
       <c r="B27" t="n">
-        <v>64.90351317714364</v>
+        <v>64.37200000000003</v>
       </c>
       <c r="C27" t="n">
-        <v>89.62606935952037</v>
+        <v>89.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>61.27600522388052</v>
+        <v>61.26429850746266</v>
       </c>
       <c r="B28" t="n">
-        <v>47.35446565656567</v>
+        <v>46.82400000000004</v>
       </c>
       <c r="C28" t="n">
-        <v>74.18099999999998</v>
+        <v>74.21199999999997</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>14.32086102819236</v>
+        <v>14.16234825870646</v>
       </c>
       <c r="B29" t="n">
-        <v>7.895066666666674</v>
+        <v>8.016000000000004</v>
       </c>
       <c r="C29" t="n">
-        <v>21.75966666666665</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>52.20868048645651</v>
+        <v>52.30334328358195</v>
       </c>
       <c r="B30" t="n">
-        <v>39.6719785714286</v>
+        <v>39.65600000000003</v>
       </c>
       <c r="C30" t="n">
-        <v>66.25035238095234</v>
+        <v>66.60000000000002</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>75.98120459606719</v>
+        <v>76.02696517412924</v>
       </c>
       <c r="B31" t="n">
-        <v>63.05745367828222</v>
+        <v>62.85199999999996</v>
       </c>
       <c r="C31" t="n">
-        <v>85.80990148000144</v>
+        <v>86.00800000000005</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>77.62546074026358</v>
+        <v>77.6799601990049</v>
       </c>
       <c r="B32" t="n">
-        <v>62.95951552746805</v>
+        <v>63.028</v>
       </c>
       <c r="C32" t="n">
-        <v>88.0724685647552</v>
+        <v>87.87200000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>77.02370920280566</v>
+        <v>77.07012935323365</v>
       </c>
       <c r="B33" t="n">
-        <v>63.35688906993886</v>
+        <v>63.30799999999996</v>
       </c>
       <c r="C33" t="n">
-        <v>87.3611956302956</v>
+        <v>87.58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>68.01912896627961</v>
+        <v>67.99810945273619</v>
       </c>
       <c r="B34" t="n">
-        <v>54.19303333333328</v>
+        <v>54.70399999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>80.44550086580094</v>
+        <v>80.63599999999997</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35.03970196635859</v>
+        <v>35.15795024875618</v>
       </c>
       <c r="B35" t="n">
-        <v>23.58407878787882</v>
+        <v>23.22000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>47.23188571428562</v>
+        <v>47.136</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>58.28987893864006</v>
+        <v>58.13703482587064</v>
       </c>
       <c r="B36" t="n">
-        <v>42.584</v>
+        <v>42.6</v>
       </c>
       <c r="C36" t="n">
-        <v>73.28208253968252</v>
+        <v>72.70000000000006</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22.92823184079593</v>
+        <v>23.06523383084566</v>
       </c>
       <c r="B37" t="n">
-        <v>13.61450476190477</v>
+        <v>13.96</v>
       </c>
       <c r="C37" t="n">
-        <v>32.48496984126985</v>
+        <v>32.66399999999997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>77.78025765780079</v>
+        <v>77.65357213930336</v>
       </c>
       <c r="B38" t="n">
-        <v>63.62191983956894</v>
+        <v>63.91600000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>87.50883528323526</v>
+        <v>87.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>56.85119734660017</v>
+        <v>57.13140298507454</v>
       </c>
       <c r="B39" t="n">
-        <v>42.60049999999997</v>
+        <v>43.26400000000002</v>
       </c>
       <c r="C39" t="n">
-        <v>69.46277777777776</v>
+        <v>69.71199999999996</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>16.33091956882254</v>
+        <v>16.26089552238805</v>
       </c>
       <c r="B40" t="n">
-        <v>10.27950607725607</v>
+        <v>9.443999999999996</v>
       </c>
       <c r="C40" t="n">
-        <v>24.93909999999999</v>
+        <v>25.176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>54.63335797204446</v>
+        <v>54.59395024875613</v>
       </c>
       <c r="B41" t="n">
-        <v>40.77699999999998</v>
+        <v>40.544</v>
       </c>
       <c r="C41" t="n">
-        <v>68.71933333333338</v>
+        <v>68.58799999999999</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>73.34916389133252</v>
+        <v>73.62441791044765</v>
       </c>
       <c r="B42" t="n">
-        <v>60.33451605061604</v>
+        <v>60.364</v>
       </c>
       <c r="C42" t="n">
-        <v>84.40515282440869</v>
+        <v>84.47200000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>52.20594416804855</v>
+        <v>52.30334328358195</v>
       </c>
       <c r="B43" t="n">
-        <v>39.6719785714286</v>
+        <v>39.65600000000003</v>
       </c>
       <c r="C43" t="n">
-        <v>66.29866349206345</v>
+        <v>66.60000000000002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>65.75230713101151</v>
+        <v>65.81327363184074</v>
       </c>
       <c r="B44" t="n">
-        <v>50.77226666666664</v>
+        <v>50.74800000000004</v>
       </c>
       <c r="C44" t="n">
-        <v>78.32530687830689</v>
+        <v>78.33200000000002</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>74.87814154228853</v>
+        <v>74.87755223880593</v>
       </c>
       <c r="B45" t="n">
-        <v>62.44863492063495</v>
+        <v>62.46799999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>84.68557930718522</v>
+        <v>85.60399999999994</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>74.53164982231681</v>
+        <v>74.60742288557196</v>
       </c>
       <c r="B46" t="n">
-        <v>60.76737958152957</v>
+        <v>60.33600000000005</v>
       </c>
       <c r="C46" t="n">
-        <v>85.24795631405625</v>
+        <v>85.87600000000003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>80.56098126784282</v>
+        <v>80.17679601990041</v>
       </c>
       <c r="B47" t="n">
-        <v>64.67532788243714</v>
+        <v>64.08399999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>90.30125490119484</v>
+        <v>89.95200000000003</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55.07304809286887</v>
+        <v>54.80927363184074</v>
       </c>
       <c r="B48" t="n">
-        <v>41.00354047619046</v>
+        <v>41.42399999999998</v>
       </c>
       <c r="C48" t="n">
-        <v>68.56477777777776</v>
+        <v>68.55199999999998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>14.29780952380951</v>
+        <v>14.49066666666666</v>
       </c>
       <c r="B49" t="n">
-        <v>8.463835714285718</v>
+        <v>8.640000000000006</v>
       </c>
       <c r="C49" t="n">
-        <v>21.80537883597885</v>
+        <v>21.99599999999998</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22.9258855721392</v>
+        <v>22.92268656716405</v>
       </c>
       <c r="B50" t="n">
-        <v>14.12566666666668</v>
+        <v>14.112</v>
       </c>
       <c r="C50" t="n">
-        <v>31.67246666666668</v>
+        <v>32.18399999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.647184908789377</v>
+        <v>6.631741293532331</v>
       </c>
       <c r="B51" t="n">
-        <v>3.231857142857143</v>
+        <v>3.204000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>10.92968888888887</v>
+        <v>10.924</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72.77228476664285</v>
+        <v>72.71584079601975</v>
       </c>
       <c r="B52" t="n">
-        <v>58.1747333333333</v>
+        <v>58.26399999999997</v>
       </c>
       <c r="C52" t="n">
-        <v>84.5660784363784</v>
+        <v>84.66800000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>56.35514759535642</v>
+        <v>56.81512437810937</v>
       </c>
       <c r="B53" t="n">
-        <v>41.87359999999996</v>
+        <v>42.11600000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>70.00099999999988</v>
+        <v>70.34800000000001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.64901094527363</v>
+        <v>11.6070447761194</v>
       </c>
       <c r="B54" t="n">
-        <v>6.778469047619043</v>
+        <v>6.456000000000002</v>
       </c>
       <c r="C54" t="n">
-        <v>18.99939841269842</v>
+        <v>18.892</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20.25496650082904</v>
+        <v>20.12527363184066</v>
       </c>
       <c r="B55" t="n">
-        <v>12.29101212121212</v>
+        <v>11.94400000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>30.23827142857141</v>
+        <v>30.06399999999998</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>76.02800152807379</v>
+        <v>76.11864676616898</v>
       </c>
       <c r="B56" t="n">
-        <v>63.20045573660553</v>
+        <v>62.79199999999998</v>
       </c>
       <c r="C56" t="n">
-        <v>86.1713005328006</v>
+        <v>86.37599999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>77.61397069051233</v>
+        <v>77.6482985074626</v>
       </c>
       <c r="B57" t="n">
-        <v>63.06424391852144</v>
+        <v>63.11200000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>88.04094118287782</v>
+        <v>87.77200000000001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22.92694825870639</v>
+        <v>23.00921393034815</v>
       </c>
       <c r="B58" t="n">
-        <v>13.27817142857144</v>
+        <v>13.408</v>
       </c>
       <c r="C58" t="n">
-        <v>33.32660476190476</v>
+        <v>33.57199999999998</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>70.36107186685609</v>
+        <v>70.45834825870638</v>
       </c>
       <c r="B59" t="n">
-        <v>56.95013225108224</v>
+        <v>56.37599999999996</v>
       </c>
       <c r="C59" t="n">
-        <v>81.49074107004105</v>
+        <v>81.24799999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>13.23079519071309</v>
+        <v>13.30889552238806</v>
       </c>
       <c r="B60" t="n">
-        <v>7.507199999999998</v>
+        <v>7.448</v>
       </c>
       <c r="C60" t="n">
-        <v>20.10022222222223</v>
+        <v>20.46799999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>77.35636034566015</v>
+        <v>77.58013930348253</v>
       </c>
       <c r="B61" t="n">
-        <v>63.98965974688385</v>
+        <v>63.93599999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>87.54905058645058</v>
+        <v>87.76399999999995</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>72.23684593698169</v>
+        <v>72.18212935323373</v>
       </c>
       <c r="B62" t="n">
-        <v>58.06420952380954</v>
+        <v>57.74800000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>83.06132609427613</v>
+        <v>82.69199999999995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>78.3921072804426</v>
+        <v>78.42792039800982</v>
       </c>
       <c r="B63" t="n">
-        <v>64.85533104198669</v>
+        <v>64.748</v>
       </c>
       <c r="C63" t="n">
-        <v>88.0538782587783</v>
+        <v>88.256</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>13.33140414593696</v>
+        <v>13.4537711442786</v>
       </c>
       <c r="B64" t="n">
-        <v>7.763200000000007</v>
+        <v>7.688000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>20.12388888888889</v>
+        <v>20.58799999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>76.24390981958886</v>
+        <v>76.13265671641791</v>
       </c>
       <c r="B65" t="n">
-        <v>60.74349632034633</v>
+        <v>60.42400000000002</v>
       </c>
       <c r="C65" t="n">
-        <v>87.23535839493843</v>
+        <v>87.04799999999997</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>67.07158305693744</v>
+        <v>66.4406965174128</v>
       </c>
       <c r="B66" t="n">
-        <v>52.67059999999998</v>
+        <v>52.172</v>
       </c>
       <c r="C66" t="n">
-        <v>78.41255154475161</v>
+        <v>78.19200000000002</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65.47501736519411</v>
+        <v>65.61351243781083</v>
       </c>
       <c r="B67" t="n">
-        <v>52.35298888888892</v>
+        <v>52.04799999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>77.6798834646835</v>
+        <v>77.35599999999994</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>18.82491094527361</v>
+        <v>19.01870646766166</v>
       </c>
       <c r="B68" t="n">
-        <v>10.297718992119</v>
+        <v>10.536</v>
       </c>
       <c r="C68" t="n">
-        <v>28.81745079365081</v>
+        <v>29.03999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>80.61715197527251</v>
+        <v>80.55542288557201</v>
       </c>
       <c r="B69" t="n">
-        <v>64.40842792553838</v>
+        <v>64.60399999999996</v>
       </c>
       <c r="C69" t="n">
-        <v>90.44528744196563</v>
+        <v>90.63600000000005</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>16.34222752902157</v>
+        <v>16.15834825870646</v>
       </c>
       <c r="B70" t="n">
-        <v>10.21780607725607</v>
+        <v>10.184</v>
       </c>
       <c r="C70" t="n">
-        <v>24.63327777777779</v>
+        <v>24.528</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>38.75230563847411</v>
+        <v>38.88161194029835</v>
       </c>
       <c r="B71" t="n">
-        <v>25.56943333333332</v>
+        <v>25.748</v>
       </c>
       <c r="C71" t="n">
-        <v>52.7556444444445</v>
+        <v>52.83200000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>46.9426708126035</v>
+        <v>46.94463681592033</v>
       </c>
       <c r="B72" t="n">
-        <v>32.27639047619048</v>
+        <v>32.25599999999997</v>
       </c>
       <c r="C72" t="n">
-        <v>60.83547777777777</v>
+        <v>60.67199999999998</v>
       </c>
     </row>
   </sheetData>
